--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -294,45 +294,49 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.meta.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -383,10 +387,6 @@
   </si>
   <si>
     <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -2948,13 +2948,13 @@
         <v>79</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3005,7 +3005,7 @@
         <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
@@ -3029,7 +3029,7 @@
         <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>79</v>
@@ -3040,11 +3040,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -3063,16 +3063,16 @@
         <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -3110,19 +3110,19 @@
         <v>79</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
@@ -3134,7 +3134,7 @@
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>79</v>
@@ -3146,7 +3146,7 @@
         <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>79</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -3180,7 +3180,7 @@
         <v>90</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>120</v>
@@ -4350,7 +4350,7 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>190</v>
@@ -4395,14 +4395,14 @@
         <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>192</v>
@@ -4417,7 +4417,7 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
@@ -4534,7 +4534,7 @@
         <v>196</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
@@ -4651,7 +4651,7 @@
         <v>196</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
@@ -4768,7 +4768,7 @@
         <v>196</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
@@ -4885,7 +4885,7 @@
         <v>196</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
@@ -5002,7 +5002,7 @@
         <v>196</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
@@ -5119,7 +5119,7 @@
         <v>196</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>79</v>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -5165,7 +5165,7 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>211</v>
@@ -5174,7 +5174,7 @@
         <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>213</v>
@@ -5238,7 +5238,7 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
@@ -5808,7 +5808,7 @@
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>254</v>
@@ -5990,13 +5990,13 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -6047,7 +6047,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -6071,7 +6071,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -6105,16 +6105,16 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6152,19 +6152,19 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6176,7 +6176,7 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
@@ -6188,7 +6188,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6341,13 +6341,13 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6398,7 +6398,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6422,7 +6422,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6456,16 +6456,16 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6503,19 +6503,19 @@
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6527,7 +6527,7 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>79</v>
@@ -6539,7 +6539,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6692,7 +6692,7 @@
         <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>288</v>
@@ -6926,7 +6926,7 @@
         <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>303</v>
@@ -7162,7 +7162,7 @@
         <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>319</v>
@@ -7400,13 +7400,13 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7457,7 +7457,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7481,7 +7481,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7515,16 +7515,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7562,19 +7562,19 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7586,7 +7586,7 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7598,7 +7598,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7688,7 +7688,7 @@
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>273</v>
@@ -7870,13 +7870,13 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7927,7 +7927,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7951,7 +7951,7 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7985,16 +7985,16 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -8032,19 +8032,19 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -8056,7 +8056,7 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
@@ -8068,7 +8068,7 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8221,7 +8221,7 @@
         <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>288</v>
@@ -8455,7 +8455,7 @@
         <v>90</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>303</v>
@@ -8691,7 +8691,7 @@
         <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>319</v>
@@ -9455,7 +9455,7 @@
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>402</v>
@@ -9992,13 +9992,13 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10049,7 +10049,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -10073,7 +10073,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -10088,7 +10088,7 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10107,16 +10107,16 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -10154,19 +10154,19 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10178,7 +10178,7 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
@@ -10190,7 +10190,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10462,7 +10462,7 @@
         <v>90</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>453</v>
@@ -11172,13 +11172,13 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -11229,7 +11229,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11253,7 +11253,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11287,16 +11287,16 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11334,19 +11334,19 @@
         <v>79</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11358,7 +11358,7 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -11370,7 +11370,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -12340,13 +12340,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12397,7 +12397,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12421,7 +12421,7 @@
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12436,7 +12436,7 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12455,16 +12455,16 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12514,7 +12514,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12526,7 +12526,7 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
@@ -12538,7 +12538,7 @@
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12572,7 +12572,7 @@
         <v>90</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>574</v>
@@ -12581,7 +12581,7 @@
         <v>575</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>213</v>
@@ -12645,7 +12645,7 @@
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
@@ -13276,7 +13276,7 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>611</v>
@@ -13744,13 +13744,13 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13801,7 +13801,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13825,7 +13825,7 @@
         <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13840,7 +13840,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13859,16 +13859,16 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13918,7 +13918,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13930,7 +13930,7 @@
         <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>79</v>
@@ -13942,7 +13942,7 @@
         <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -13976,7 +13976,7 @@
         <v>90</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>574</v>
@@ -13985,7 +13985,7 @@
         <v>575</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>213</v>
@@ -14049,7 +14049,7 @@
         <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>79</v>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -621,7 +621,7 @@
     <t>bodyPosition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationRespirationRateBodyPosition}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationRespirationRateBodyPosition}
 </t>
   </si>
   <si>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-alpha</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3907" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3907" uniqueCount="660">
   <si>
     <t>Property</t>
   </si>
@@ -269,10 +269,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -1306,14 +1302,14 @@
     <t>Author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|CareTeam|Patient|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole)
 </t>
   </si>
   <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization|CareTeam|Patient|RelatedPerson)
+    <t>organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
 </t>
   </si>
   <si>
@@ -2670,19 +2666,19 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2693,7 +2689,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2704,28 +2700,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2775,13 +2771,13 @@
         <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -2810,7 +2806,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2821,25 +2817,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2890,19 +2886,19 @@
         <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>79</v>
@@ -2925,7 +2921,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2936,7 +2932,7 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>79</v>
@@ -2948,13 +2944,13 @@
         <v>79</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3005,31 +3001,31 @@
         <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM5" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>79</v>
@@ -3040,11 +3036,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -3063,16 +3059,16 @@
         <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -3110,19 +3106,19 @@
         <v>79</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
@@ -3134,7 +3130,7 @@
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>79</v>
@@ -3146,7 +3142,7 @@
         <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>79</v>
@@ -3157,7 +3153,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -3168,28 +3164,28 @@
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J7" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="K7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3239,19 +3235,19 @@
         <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>79</v>
@@ -3274,7 +3270,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -3285,28 +3281,28 @@
         <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3356,19 +3352,19 @@
         <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>79</v>
@@ -3391,7 +3387,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3402,28 +3398,28 @@
         <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3473,19 +3469,19 @@
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3508,7 +3504,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3528,19 +3524,19 @@
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3590,7 +3586,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3602,7 +3598,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
@@ -3625,7 +3621,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3645,19 +3641,19 @@
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3683,31 +3679,31 @@
         <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3719,7 +3715,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3742,7 +3738,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3762,19 +3758,19 @@
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3800,31 +3796,31 @@
         <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3836,7 +3832,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>79</v>
@@ -3859,7 +3855,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3870,28 +3866,28 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3941,19 +3937,19 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>79</v>
@@ -3976,7 +3972,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3987,7 +3983,7 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -3999,16 +3995,16 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -4034,43 +4030,43 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
@@ -4093,18 +4089,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
@@ -4116,16 +4112,16 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -4175,31 +4171,31 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -4210,11 +4206,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4233,16 +4229,16 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4292,7 +4288,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4316,7 +4312,7 @@
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -4327,7 +4323,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4350,13 +4346,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4395,17 +4391,17 @@
         <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4417,7 +4413,7 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
@@ -4440,10 +4436,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
@@ -4453,7 +4449,7 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -4465,13 +4461,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4522,7 +4518,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4531,10 +4527,10 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
@@ -4546,7 +4542,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4557,10 +4553,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
@@ -4570,7 +4566,7 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
@@ -4582,13 +4578,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4639,7 +4635,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4648,10 +4644,10 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
@@ -4663,7 +4659,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4674,10 +4670,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4687,7 +4683,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -4699,13 +4695,13 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4756,7 +4752,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4765,10 +4761,10 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
@@ -4780,7 +4776,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4791,10 +4787,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
@@ -4804,7 +4800,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4816,13 +4812,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4873,7 +4869,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4882,10 +4878,10 @@
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
@@ -4897,7 +4893,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4908,10 +4904,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
@@ -4921,7 +4917,7 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4933,13 +4929,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4990,7 +4986,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4999,10 +4995,10 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
@@ -5014,7 +5010,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -5025,10 +5021,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
@@ -5038,7 +5034,7 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -5050,13 +5046,13 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -5107,7 +5103,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5116,10 +5112,10 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>79</v>
@@ -5131,7 +5127,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -5142,11 +5138,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -5159,25 +5155,25 @@
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5226,7 +5222,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5238,7 +5234,7 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
@@ -5250,7 +5246,7 @@
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5261,7 +5257,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5281,20 +5277,20 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5343,7 +5339,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5355,22 +5351,22 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -5378,11 +5374,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5398,20 +5394,20 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5460,7 +5456,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5472,19 +5468,19 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5495,11 +5491,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5515,19 +5511,19 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5577,7 +5573,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5589,19 +5585,19 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5612,7 +5608,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5620,34 +5616,34 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="H28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I28" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5672,56 +5668,56 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5729,7 +5725,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5737,13 +5733,13 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5752,19 +5748,19 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5789,29 +5785,29 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA29" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5823,7 +5819,7 @@
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
@@ -5835,10 +5831,10 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5846,24 +5842,24 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5871,19 +5867,19 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5908,14 +5904,14 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5932,7 +5928,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5944,7 +5940,7 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
@@ -5956,10 +5952,10 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5967,7 +5963,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5978,7 +5974,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5990,13 +5986,13 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -6047,31 +6043,31 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -6082,11 +6078,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -6105,16 +6101,16 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6152,19 +6148,19 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AB32" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AB32" t="s" s="2">
+      <c r="AC32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD32" t="s" s="2">
+      <c r="AE32" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6176,7 +6172,7 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
@@ -6188,7 +6184,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6199,7 +6195,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6207,34 +6203,34 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6283,7 +6279,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6295,7 +6291,7 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>79</v>
@@ -6304,10 +6300,10 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6318,7 +6314,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6329,7 +6325,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -6341,13 +6337,13 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6398,31 +6394,31 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6433,11 +6429,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6456,16 +6452,16 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6503,19 +6499,19 @@
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AB35" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AB35" t="s" s="2">
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD35" t="s" s="2">
+      <c r="AE35" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6527,7 +6523,7 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>79</v>
@@ -6539,7 +6535,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6550,7 +6546,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6558,107 +6554,107 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="R36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE36" t="s" s="2">
+      <c r="AF36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6669,7 +6665,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6680,28 +6676,28 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6751,31 +6747,31 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6786,7 +6782,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6794,105 +6790,105 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="R38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE38" t="s" s="2">
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6903,7 +6899,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6914,29 +6910,29 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6985,31 +6981,31 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -7020,7 +7016,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7031,31 +7027,31 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -7104,31 +7100,31 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7139,7 +7135,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7150,31 +7146,31 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7223,31 +7219,31 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7258,42 +7254,42 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="H42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7318,66 +7314,66 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Y42" t="s" s="2">
+      <c r="Z42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
+      <c r="AK42" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>339</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7388,7 +7384,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -7400,13 +7396,13 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7457,31 +7453,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7492,11 +7488,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7515,16 +7511,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7562,19 +7558,19 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AB44" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AB44" t="s" s="2">
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
+      <c r="AE44" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7586,7 +7582,7 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7598,7 +7594,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7609,7 +7605,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7629,22 +7625,22 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7681,17 +7677,17 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AB45" s="2"/>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7703,7 +7699,7 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
@@ -7712,10 +7708,10 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7726,44 +7722,44 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7812,7 +7808,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7824,7 +7820,7 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7833,10 +7829,10 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7847,7 +7843,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7858,7 +7854,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7870,13 +7866,13 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7927,31 +7923,31 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7962,11 +7958,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7985,16 +7981,16 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -8032,19 +8028,19 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AB48" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AB48" t="s" s="2">
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD48" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD48" t="s" s="2">
+      <c r="AE48" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -8056,7 +8052,7 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
@@ -8068,7 +8064,7 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8079,7 +8075,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8087,41 +8083,41 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -8163,31 +8159,31 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8198,7 +8194,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8209,28 +8205,28 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8280,31 +8276,31 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AF50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8315,7 +8311,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8323,39 +8319,39 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8397,31 +8393,31 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AF51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8432,7 +8428,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8443,29 +8439,29 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8514,31 +8510,31 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8549,7 +8545,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8560,31 +8556,31 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J53" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8633,31 +8629,31 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8668,7 +8664,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8679,31 +8675,31 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8752,31 +8748,31 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8787,7 +8783,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8795,34 +8791,34 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="H55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J55" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8871,34 +8867,34 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8906,7 +8902,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8926,19 +8922,19 @@
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8988,7 +8984,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -9000,7 +8996,7 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
@@ -9009,13 +9005,13 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -9023,42 +9019,42 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J57" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -9107,34 +9103,34 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AK57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>79</v>
@@ -9142,42 +9138,42 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G58" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J58" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -9226,34 +9222,34 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AI58" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AI58" t="s" s="2">
+      <c r="AJ58" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AJ58" t="s" s="2">
+      <c r="AK58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AK58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
@@ -9261,7 +9257,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9272,28 +9268,28 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J59" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9343,19 +9339,19 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
@@ -9364,13 +9360,13 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -9378,7 +9374,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9398,20 +9394,20 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9448,17 +9444,17 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9470,22 +9466,22 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9493,10 +9489,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>79</v>
@@ -9515,20 +9511,20 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9577,7 +9573,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9589,22 +9585,22 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9612,10 +9608,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>79</v>
@@ -9634,20 +9630,20 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9696,7 +9692,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9708,22 +9704,22 @@
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9731,7 +9727,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9742,31 +9738,31 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G63" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9803,55 +9799,55 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AB63" s="2"/>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH63" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AE63" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH63" t="s" s="2">
+      <c r="AI63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AI63" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>79</v>
@@ -9861,31 +9857,31 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G64" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="N64" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9934,42 +9930,42 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AI64" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9980,7 +9976,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9992,13 +9988,13 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10049,31 +10045,31 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -10084,11 +10080,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10107,16 +10103,16 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -10154,19 +10150,19 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AB66" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AB66" t="s" s="2">
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD66" t="s" s="2">
+      <c r="AE66" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10178,7 +10174,7 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
@@ -10190,7 +10186,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10201,7 +10197,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10209,34 +10205,34 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G67" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J67" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10285,31 +10281,31 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AF67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10320,7 +10316,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10331,104 +10327,104 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I68" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P68" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="O68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P68" t="s" s="2">
+      <c r="Q68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X68" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="Q68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="X68" t="s" s="2">
+      <c r="Y68" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Y68" t="s" s="2">
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE68" t="s" s="2">
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AF68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10439,7 +10435,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10447,32 +10443,32 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J69" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10521,31 +10517,31 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AF69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10556,7 +10552,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10564,105 +10560,105 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G70" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="R70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE70" t="s" s="2">
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH70" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AF70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH70" t="s" s="2">
+      <c r="AI70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10673,7 +10669,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10681,107 +10677,107 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G71" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="R71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE71" t="s" s="2">
+      <c r="AF71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10792,7 +10788,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10803,11 +10799,11 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G72" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G72" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10815,19 +10811,19 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10852,55 +10848,55 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Y72" t="s" s="2">
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH72" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH72" t="s" s="2">
+      <c r="AI72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10911,11 +10907,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10934,19 +10930,19 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10971,14 +10967,14 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10995,7 +10991,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -11007,30 +11003,30 @@
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>494</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11053,19 +11049,19 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -11114,7 +11110,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -11126,7 +11122,7 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>79</v>
@@ -11135,10 +11131,10 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -11149,7 +11145,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11172,13 +11168,13 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -11229,31 +11225,31 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11264,11 +11260,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11287,16 +11283,16 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11334,19 +11330,19 @@
         <v>79</v>
       </c>
       <c r="AA76" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AB76" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AB76" t="s" s="2">
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD76" t="s" s="2">
+      <c r="AE76" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11358,7 +11354,7 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -11370,7 +11366,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11381,7 +11377,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11401,19 +11397,19 @@
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11463,31 +11459,31 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11498,7 +11494,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11518,16 +11514,16 @@
         <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11578,31 +11574,31 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11613,7 +11609,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11621,28 +11617,28 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J79" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11693,31 +11689,31 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11728,7 +11724,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11739,7 +11735,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>79</v>
@@ -11751,16 +11747,16 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11786,66 +11782,66 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Y80" t="s" s="2">
+      <c r="Z80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK80" t="s" s="2">
+      <c r="AL80" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="AL80" t="s" s="2">
+      <c r="AM80" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>533</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11856,7 +11852,7 @@
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>79</v>
@@ -11868,19 +11864,19 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11905,55 +11901,55 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="Y81" t="s" s="2">
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL81" t="s" s="2">
+      <c r="AM81" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11964,7 +11960,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11975,7 +11971,7 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>79</v>
@@ -11987,16 +11983,16 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -12046,42 +12042,42 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="AL82" t="s" s="2">
+      <c r="AM82" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO82" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>551</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12092,7 +12088,7 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>79</v>
@@ -12104,16 +12100,16 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -12163,42 +12159,42 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>560</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12221,19 +12217,19 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12282,7 +12278,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12294,19 +12290,19 @@
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="AJ84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12317,7 +12313,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12328,7 +12324,7 @@
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>79</v>
@@ -12340,13 +12336,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12397,31 +12393,31 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12432,11 +12428,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12455,16 +12451,16 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12514,7 +12510,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12526,7 +12522,7 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
@@ -12538,7 +12534,7 @@
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12549,11 +12545,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12566,25 +12562,25 @@
         <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="M87" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12633,7 +12629,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12645,7 +12641,7 @@
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
@@ -12657,7 +12653,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12668,7 +12664,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12679,7 +12675,7 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12691,13 +12687,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12748,31 +12744,31 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AI88" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL88" t="s" s="2">
+      <c r="AM88" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12783,7 +12779,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12794,7 +12790,7 @@
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>79</v>
@@ -12806,13 +12802,13 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12863,31 +12859,31 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AI89" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>582</v>
-      </c>
       <c r="AM89" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12898,7 +12894,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12909,7 +12905,7 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12921,19 +12917,19 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12958,55 +12954,55 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X90" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="Y90" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="Y90" t="s" s="2">
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="Z90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK90" t="s" s="2">
+      <c r="AL90" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AL90" t="s" s="2">
-        <v>596</v>
-      </c>
       <c r="AM90" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -13017,7 +13013,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13040,19 +13036,19 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -13077,14 +13073,14 @@
         <v>79</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
       </c>
@@ -13101,7 +13097,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -13113,19 +13109,19 @@
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AL91" t="s" s="2">
-        <v>596</v>
-      </c>
       <c r="AM91" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13136,7 +13132,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13147,7 +13143,7 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>79</v>
@@ -13159,17 +13155,17 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -13218,19 +13214,19 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>79</v>
@@ -13242,7 +13238,7 @@
         <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13253,7 +13249,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13264,7 +13260,7 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
@@ -13276,13 +13272,13 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13333,19 +13329,19 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>79</v>
@@ -13354,10 +13350,10 @@
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13368,7 +13364,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13388,19 +13384,19 @@
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="L94" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13450,7 +13446,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13462,7 +13458,7 @@
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>79</v>
@@ -13471,10 +13467,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13485,7 +13481,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13505,19 +13501,19 @@
         <v>79</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13567,7 +13563,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13579,7 +13575,7 @@
         <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>79</v>
@@ -13588,10 +13584,10 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13602,7 +13598,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13616,28 +13612,28 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="L96" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13686,7 +13682,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13698,19 +13694,19 @@
         <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL96" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="AJ96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL96" t="s" s="2">
+      <c r="AM96" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13721,7 +13717,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13732,7 +13728,7 @@
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>79</v>
@@ -13744,13 +13740,13 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K97" t="s" s="2">
+      <c r="L97" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13801,31 +13797,31 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13836,11 +13832,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13859,16 +13855,16 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K98" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K98" t="s" s="2">
+      <c r="L98" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13918,7 +13914,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13930,7 +13926,7 @@
         <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>79</v>
@@ -13942,7 +13938,7 @@
         <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -13953,11 +13949,11 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13970,25 +13966,25 @@
         <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L99" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="M99" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -14037,7 +14033,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -14049,7 +14045,7 @@
         <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>79</v>
@@ -14061,7 +14057,7 @@
         <v>79</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
@@ -14072,7 +14068,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14080,34 +14076,34 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G100" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G100" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J100" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>79</v>
@@ -14132,14 +14128,14 @@
         <v>79</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X100" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y100" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Y100" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="Z100" t="s" s="2">
         <v>79</v>
       </c>
@@ -14156,34 +14152,34 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AL100" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AM100" t="s" s="2">
+      <c r="AN100" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>79</v>
@@ -14191,7 +14187,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14202,31 +14198,31 @@
         <v>77</v>
       </c>
       <c r="F101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G101" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G101" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="K101" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="K101" t="s" s="2">
+      <c r="L101" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M101" t="s" s="2">
-        <v>647</v>
-      </c>
       <c r="N101" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>79</v>
@@ -14251,66 +14247,66 @@
         <v>79</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X101" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="Y101" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="Y101" t="s" s="2">
+      <c r="Z101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH101" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="Z101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH101" t="s" s="2">
+      <c r="AI101" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK101" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AI101" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="AL101" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AM101" t="s" s="2">
+      <c r="AN101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO101" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14321,11 +14317,11 @@
         <v>77</v>
       </c>
       <c r="F102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G102" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G102" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H102" t="s" s="2">
         <v>79</v>
       </c>
@@ -14333,19 +14329,19 @@
         <v>79</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M102" t="s" s="2">
-        <v>655</v>
-      </c>
       <c r="N102" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>79</v>
@@ -14370,14 +14366,14 @@
         <v>79</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X102" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y102" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Y102" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="Z102" t="s" s="2">
         <v>79</v>
       </c>
@@ -14394,19 +14390,19 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>79</v>
@@ -14415,10 +14411,10 @@
         <v>79</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -14429,11 +14425,11 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14452,19 +14448,19 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>79</v>
@@ -14489,14 +14485,14 @@
         <v>79</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X103" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y103" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y103" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z103" t="s" s="2">
         <v>79</v>
       </c>
@@ -14513,7 +14509,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -14525,30 +14521,30 @@
         <v>79</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK103" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL103" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AL103" t="s" s="2">
+      <c r="AM103" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AM103" t="s" s="2">
+      <c r="AN103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO103" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>494</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14574,16 +14570,16 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="L104" t="s" s="2">
-        <v>660</v>
-      </c>
       <c r="M104" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>79</v>
@@ -14632,7 +14628,7 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
@@ -14644,7 +14640,7 @@
         <v>79</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>79</v>
@@ -14653,10 +14649,10 @@
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.0</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.3</t>
   </si>
   <si>
     <t>Name</t>
